--- a/biology/Zoologie/Dolomedes_vicque/Dolomedes_vicque.xlsx
+++ b/biology/Zoologie/Dolomedes_vicque/Dolomedes_vicque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes vicque est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes vicque est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans le Sud-Est du Queensland, dans l'Est de la Nouvelle-Galles du Sud et dans l'Est du Victoria[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans le Sud-Est du Queensland, dans l'Est de la Nouvelle-Galles du Sud et dans l'Est du Victoria.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 13,9 mm et la femelle paratype 18,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 13,9 mm et la femelle paratype 18,0 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Raven &amp; Hebron, 2018 : A review of the water spider family Pisauridae in Australia and New Caledonia with descriptions of four new genera and 23 new species. Memoirs of the Queensland Museum, Nature, vol. 60, p. 233-381 (texte intégral).</t>
         </is>
